--- a/REGULAR/ONT/ALCAZAR, ALNEE JOY.xlsx
+++ b/REGULAR/ONT/ALCAZAR, ALNEE JOY.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
   <si>
     <t>PERIOD</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>11/22-24,27-29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -670,6 +673,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -682,20 +694,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1392,7 +1395,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1435,7 +1438,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1502,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1559,7 +1562,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1628,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,7 +1691,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +1789,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1845,7 +1848,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1910,7 +1913,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,7 +1956,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,7 +2031,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2214,7 +2217,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2280,7 +2283,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2338,7 +2341,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2404,7 +2407,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2463,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2535,7 +2538,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2581,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2644,7 +2647,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2700,7 +2703,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2801,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2861,7 +2864,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2927,7 +2930,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K136" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3335,12 +3338,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
+      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3370,14 +3373,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3390,14 +3393,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3410,16 +3413,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3445,18 +3448,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3503,7 +3506,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>58.150000000000006</v>
+        <v>55.650000000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3513,7 +3516,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>85</v>
+        <v>87.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5099,13 +5102,15 @@
         <v>45260</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
@@ -5116,14 +5121,20 @@
       <c r="A88" s="40">
         <v>45291</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="39"/>
+      <c r="B88" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D88" s="39">
+        <v>5</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
@@ -5131,8 +5142,8 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
-        <v>45322</v>
+      <c r="A89" s="48" t="s">
+        <v>83</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5150,7 +5161,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5168,7 +5179,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5186,7 +5197,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5204,7 +5215,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5222,7 +5233,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5240,7 +5251,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5257,7 +5268,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45504</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5881,34 +5894,50 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="43"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5943,7 +5972,7 @@
   </sheetPr>
   <dimension ref="A2:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A40" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
       <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
@@ -5977,14 +6006,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5998,14 +6027,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6018,17 +6047,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>ONT</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6054,18 +6083,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/REGULAR/ONT/ALCAZAR, ALNEE JOY.xlsx
+++ b/REGULAR/ONT/ALCAZAR, ALNEE JOY.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
   <si>
     <t>PERIOD</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>VL(12-0-0)</t>
+  </si>
+  <si>
+    <t>01/16-31/2024</t>
   </si>
 </sst>
 </file>
@@ -2930,7 +2936,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K136" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K137" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3338,12 +3344,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K136"/>
+  <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
+      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3506,7 +3512,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>55.650000000000006</v>
+        <v>43.650000000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3516,7 +3522,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>87.5</v>
+        <v>86.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5163,9 +5169,13 @@
       <c r="A90" s="40">
         <v>45322</v>
       </c>
-      <c r="B90" s="20"/>
+      <c r="B90" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="39"/>
+      <c r="D90" s="39">
+        <v>12</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
       <c r="G90" s="13" t="str">
@@ -5175,13 +5185,15 @@
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B91" s="20"/>
+      <c r="A91" s="40"/>
+      <c r="B91" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
@@ -5190,14 +5202,18 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H91" s="39"/>
+      <c r="H91" s="39">
+        <v>1</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="49">
+        <v>45305</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5215,7 +5231,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5233,7 +5249,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5251,7 +5267,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5269,7 +5285,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5286,7 +5302,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45504</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -5302,7 +5320,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45535</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5318,7 +5338,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45565</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -5334,7 +5356,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45596</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -5350,7 +5374,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45626</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -5366,7 +5392,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45657</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5910,20 +5938,36 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="43"/>
+      <c r="A136" s="40"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="43"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="15"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="41"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="43"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
